--- a/Customer/Cust 2025/Cargo YAN 2025.xlsx
+++ b/Customer/Cust 2025/Cargo YAN 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo CUST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE94316-9D39-4878-8682-F475B71069A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500F60A1-1970-48C5-9CE7-41FE413AC1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -118,6 +118,70 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>S0083970</t>
+  </si>
+  <si>
+    <t>GD25-02-11-0001 /18024591120</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灯具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LED luminaire</t>
+    </r>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金属卤化物灯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Metal halide lamp</t>
+    </r>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -132,7 +196,7 @@
     <numFmt numFmtId="168" formatCode="0.000_ "/>
     <numFmt numFmtId="169" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +252,25 @@
       <color theme="1"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -246,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -269,6 +352,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -279,7 +399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -400,6 +520,54 @@
     </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -717,11 +885,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -903,11 +1071,150 @@
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
     </row>
+    <row r="7" spans="1:16" ht="21">
+      <c r="B7" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="42">
+        <v>45702</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="44">
+        <v>65</v>
+      </c>
+      <c r="I7" s="41">
+        <v>2065</v>
+      </c>
+      <c r="J7" s="45">
+        <v>2.5313129999999999</v>
+      </c>
+      <c r="K7" s="44">
+        <v>113</v>
+      </c>
+      <c r="L7" s="44">
+        <v>131</v>
+      </c>
+      <c r="M7" s="44">
+        <v>171</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="44"/>
+    </row>
+    <row r="8" spans="1:16" ht="21">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="48"/>
+      <c r="H8" s="44">
+        <v>65</v>
+      </c>
+      <c r="I8" s="46"/>
+      <c r="J8" s="45">
+        <v>2.8498800000000002</v>
+      </c>
+      <c r="K8" s="44">
+        <v>127</v>
+      </c>
+      <c r="L8" s="44">
+        <v>204</v>
+      </c>
+      <c r="M8" s="44">
+        <v>110</v>
+      </c>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="44"/>
+    </row>
+    <row r="9" spans="1:16" ht="42">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="44">
+        <v>180</v>
+      </c>
+      <c r="I9" s="48"/>
+      <c r="J9" s="45">
+        <v>4.4021999999999997</v>
+      </c>
+      <c r="K9" s="44">
+        <v>115</v>
+      </c>
+      <c r="L9" s="44">
+        <v>116</v>
+      </c>
+      <c r="M9" s="44">
+        <v>165</v>
+      </c>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="44"/>
+    </row>
+    <row r="10" spans="1:16" ht="22.5">
+      <c r="B10" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53">
+        <v>2065</v>
+      </c>
+      <c r="J10" s="54">
+        <v>9.7833930000000002</v>
+      </c>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="56"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I7:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Customer/Cust 2025/Cargo YAN 2025.xlsx
+++ b/Customer/Cust 2025/Cargo YAN 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500F60A1-1970-48C5-9CE7-41FE413AC1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A0A67A-E6D7-49C8-B308-DEFFAD310C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -105,16 +105,10 @@
     <t>S0082597</t>
   </si>
   <si>
-    <t>680006101479</t>
-  </si>
-  <si>
     <t>279/YAN/SEA</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>退税TR</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -182,6 +176,54 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>680006101479 15888361117</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> bolt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>荧光灯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Fluorescent lamp</t>
+    </r>
+  </si>
+  <si>
+    <t>F1261</t>
+  </si>
+  <si>
+    <t>F1284
+退税TR</t>
   </si>
 </sst>
 </file>
@@ -399,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -482,21 +524,6 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -506,7 +533,46 @@
     <xf numFmtId="169" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,58 +581,46 @@
     <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -969,11 +1023,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -985,10 +1039,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -1004,205 +1058,217 @@
       <c r="O3" s="24"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="5" spans="1:16" ht="21">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="1:16" ht="42">
+      <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="E5" s="53">
+        <v>45670</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="30">
-        <v>45670</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="32">
+      <c r="G5" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="51">
+        <f>11+10</f>
+        <v>21</v>
+      </c>
+      <c r="I5" s="51">
+        <v>500</v>
+      </c>
+      <c r="J5" s="56">
         <f>K5*L5*M5/1000000</f>
         <v>1.4069119999999999</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="51">
         <v>104</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="51">
         <v>89</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="51">
         <v>152</v>
       </c>
-      <c r="N5" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="28"/>
+      <c r="N5" s="57">
+        <v>45677</v>
+      </c>
+      <c r="O5" s="57">
+        <v>45720</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="33" t="s">
+      <c r="B6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29">
         <f>SUM(I5:I5)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="35">
+        <v>500</v>
+      </c>
+      <c r="J6" s="30">
         <f>SUM(J5:J5)</f>
         <v>1.4069119999999999</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
     </row>
-    <row r="7" spans="1:16" ht="21">
+    <row r="7" spans="1:16" ht="21" customHeight="1">
       <c r="B7" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="47">
+        <v>45702</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="42">
-        <v>45702</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="44">
+      <c r="H7" s="32">
         <v>65</v>
       </c>
       <c r="I7" s="41">
         <v>2065</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="33">
         <v>2.5313129999999999</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="32">
         <v>113</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="32">
         <v>131</v>
       </c>
-      <c r="M7" s="44">
+      <c r="M7" s="32">
         <v>171</v>
       </c>
-      <c r="N7" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="44"/>
+      <c r="N7" s="60">
+        <v>45707</v>
+      </c>
+      <c r="O7" s="60">
+        <v>45737</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="21">
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="44">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="32">
         <v>65</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="45">
+      <c r="I8" s="42"/>
+      <c r="J8" s="33">
         <v>2.8498800000000002</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="32">
         <v>127</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="32">
         <v>204</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8" s="32">
         <v>110</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="44"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
     </row>
     <row r="9" spans="1:16" ht="42">
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="49"/>
-      <c r="F9" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="44">
+      <c r="F9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="32">
         <v>180</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="45">
+      <c r="I9" s="43"/>
+      <c r="J9" s="33">
         <v>4.4021999999999997</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="32">
         <v>115</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="32">
         <v>116</v>
       </c>
-      <c r="M9" s="44">
+      <c r="M9" s="32">
         <v>165</v>
       </c>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="44"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
     </row>
     <row r="10" spans="1:16" ht="22.5">
-      <c r="B10" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53">
+      <c r="B10" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37">
         <v>2065</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="38">
         <v>9.7833930000000002</v>
       </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="56"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="P7:P9"/>
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="O7:O9"/>
     <mergeCell ref="B10:E10"/>
@@ -1306,11 +1372,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -1322,10 +1388,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
